--- a/HR_OnBoarding_Process - UiPath/Data/Config.xlsx
+++ b/HR_OnBoarding_Process - UiPath/Data/Config.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -133,13 +133,13 @@
     <t>MasterSheetPath</t>
   </si>
   <si>
-    <t>F:\Imran\RPA\HR_OnBoarding_Process\Data\Input\MasterData.xlsx</t>
-  </si>
-  <si>
     <t>SuccessFolderPath</t>
   </si>
   <si>
-    <t>F:\Imran\RPA\HR_OnBoarding_Process\SuccessFiles</t>
+    <t>D:\Imran-Github\RPA-UiPath\HR_OnBoarding_Process - UiPath\SuccessFiles</t>
+  </si>
+  <si>
+    <t>D:\Imran-Github\RPA-UiPath\HR_OnBoarding_Process - UiPath\Data\Input\MasterData.xlsx</t>
   </si>
 </sst>
 </file>
@@ -531,15 +531,15 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
-    <col min="2" max="2" width="61.44140625" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="86" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -588,7 +588,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="28.8">
+    <row r="4" spans="1:26" ht="30">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -623,16 +623,16 @@
         <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1638,12 +1638,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1680,7 +1680,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2750,12 +2750,12 @@
       <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
